--- a/Arte y Cultura/11.1.xlsx
+++ b/Arte y Cultura/11.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Arte y Cultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F738C4AB-EF76-41F0-BC57-266BF730C3B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E3BAF8-D9EA-40BD-BCFC-9FFE55CBF758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3095,7 +3095,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Arte y Cultura/11.1.xlsx
+++ b/Arte y Cultura/11.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gustavo Arancibia\Dropbox\Diseño DATA's (1)\Tablas Madre\Arte y Cultura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E3BAF8-D9EA-40BD-BCFC-9FFE55CBF758}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{554C8873-74A7-4778-A515-A09BE4CB18BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -295,18 +295,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -337,7 +331,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
@@ -357,10 +351,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -369,7 +362,7 @@
   <dxfs count="23">
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -378,18 +371,103 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="1"/>
-          <bgColor theme="1"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -532,7 +610,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
+        <b/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -541,34 +619,16 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
+        <sz val="11"/>
+        <color theme="0"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -589,36 +649,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -693,42 +723,6 @@
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -751,40 +745,40 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE9E05CA-891B-46F1-B641-E91C2976B3CF}" name="Monumentos_Nacionales_Conteo" displayName="Monumentos_Nacionales_Conteo" ref="A1:H69" totalsRowShown="0" headerRowDxfId="20" dataDxfId="21" headerRowCellStyle="Normal 3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AE9E05CA-891B-46F1-B641-E91C2976B3CF}" name="Monumentos_Nacionales_Conteo" displayName="Monumentos_Nacionales_Conteo" ref="A1:H69" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowCellStyle="Normal 3">
   <autoFilter ref="A1:H69" xr:uid="{A5510C1A-1865-4069-A5DB-DD8BC4E899D7}"/>
   <tableColumns count="8">
-    <tableColumn id="4" xr3:uid="{72692C67-BD98-469D-B0FC-E03B563DB1D9}" name="Código_Región" dataDxfId="19"/>
-    <tableColumn id="1" xr3:uid="{D0281276-8A96-4982-B426-97DD308805C0}" name="Región" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{2EF38198-89A9-4DDF-8A05-A48B2004740D}" name="Id_Producto" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{ACEC9AB8-A34D-4754-802C-0CF7A6559203}" name="Producto" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{2B864792-A11D-438A-BA0C-E5FD08D066B2}" name="Id_Categoría" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{ACD9EE68-83A5-44C8-8D7D-B5448407F9AD}" name="Categoría" dataDxfId="17"/>
-    <tableColumn id="8" xr3:uid="{652ED270-A24A-46B9-A5EA-514ABF47982C}" name="Id_auxiliar" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{1A55C60F-0483-419D-AF2E-AB1BEE92107E}" name="Cantidad" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{72692C67-BD98-469D-B0FC-E03B563DB1D9}" name="Código_Región" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{D0281276-8A96-4982-B426-97DD308805C0}" name="Región" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{2EF38198-89A9-4DDF-8A05-A48B2004740D}" name="Id_Producto" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{ACEC9AB8-A34D-4754-802C-0CF7A6559203}" name="Producto" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2B864792-A11D-438A-BA0C-E5FD08D066B2}" name="Id_Categoría" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{ACD9EE68-83A5-44C8-8D7D-B5448407F9AD}" name="Categoría" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{652ED270-A24A-46B9-A5EA-514ABF47982C}" name="Id_auxiliar" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{1A55C60F-0483-419D-AF2E-AB1BEE92107E}" name="Cantidad" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEDCB18B-5716-4977-B6F2-04D11B5ADD56}" name="Monumentos_Nacionales_Conteo_auxiliar" displayName="Monumentos_Nacionales_Conteo_auxiliar" ref="A1:N5" totalsRowShown="0" headerRowDxfId="0" tableBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DEDCB18B-5716-4977-B6F2-04D11B5ADD56}" name="Monumentos_Nacionales_Conteo_auxiliar" displayName="Monumentos_Nacionales_Conteo_auxiliar" ref="A1:N5" totalsRowShown="0" headerRowDxfId="17" tableBorderDxfId="16">
   <autoFilter ref="A1:N5" xr:uid="{39265AE4-7E03-412A-864C-CEE1F951D1D3}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{63FB784C-D1E0-4DED-895B-8596B049633D}" name="Id_auxiliar"/>
     <tableColumn id="2" xr3:uid="{60DFBC13-EBD4-425D-858A-38662FFB242E}" name="Definición"/>
-    <tableColumn id="3" xr3:uid="{F8254515-9211-4A55-8EA5-D39C8C9E2037}" name="Parámetro" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{EFB4159E-194B-442A-9DD6-F75A501A3D63}" name="Detalle" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{72843CF3-2E41-48B0-855B-FB014AFF6A62}" name="Territorio" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{B4D69FD9-FE2F-40A6-A66E-52C1DB2F54EE}" name="Temporalidad" dataDxfId="8"/>
-    <tableColumn id="7" xr3:uid="{466B8852-52AB-4B65-BF5B-CE6D643742D2}" name="Título" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F8254515-9211-4A55-8EA5-D39C8C9E2037}" name="Parámetro" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{EFB4159E-194B-442A-9DD6-F75A501A3D63}" name="Detalle" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{72843CF3-2E41-48B0-855B-FB014AFF6A62}" name="Territorio" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{B4D69FD9-FE2F-40A6-A66E-52C1DB2F54EE}" name="Temporalidad" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{466B8852-52AB-4B65-BF5B-CE6D643742D2}" name="Título" dataDxfId="11"/>
     <tableColumn id="8" xr3:uid="{A5353D53-668C-4D1F-9D20-A67BE043A3AA}" name="Tags"/>
-    <tableColumn id="9" xr3:uid="{532A058D-1294-49F6-8209-A8762902A68E}" name="ISO país" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{DAF74B14-EF38-40C0-B741-CF7E8414D291}" name="Nivel administrativo" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{52D9C32D-C2B4-49BB-84E6-E14235DAB3FE}" name="Descripción larga" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{98DA0742-B207-426F-9FF1-770B2736B4BC}" name="Fecha" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{9A7BF1B2-64C8-4C77-B7B9-237B81FD81CC}" name="Unidad" dataDxfId="2"/>
-    <tableColumn id="14" xr3:uid="{E6024E5D-FE3A-4E9F-A5AE-A1831B359440}" name="Responsable" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{532A058D-1294-49F6-8209-A8762902A68E}" name="ISO país" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{DAF74B14-EF38-40C0-B741-CF7E8414D291}" name="Nivel administrativo" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{52D9C32D-C2B4-49BB-84E6-E14235DAB3FE}" name="Descripción larga" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{98DA0742-B207-426F-9FF1-770B2736B4BC}" name="Fecha" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{9A7BF1B2-64C8-4C77-B7B9-237B81FD81CC}" name="Unidad" dataDxfId="6"/>
+    <tableColumn id="14" xr3:uid="{E6024E5D-FE3A-4E9F-A5AE-A1831B359440}" name="Responsable" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1117,7 +1111,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,14 +1160,14 @@
       <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11">
-        <v>0</v>
+      <c r="C2" s="5">
+        <v>220803</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="11">
-        <v>0</v>
+      <c r="E2" s="5">
+        <v>220803001</v>
       </c>
       <c r="F2" s="9" t="s">
         <v>16</v>
@@ -1195,14 +1189,14 @@
       <c r="B3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11">
-        <v>0</v>
+      <c r="C3" s="5">
+        <v>220803</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="11">
-        <v>0</v>
+      <c r="E3" s="5">
+        <v>220803001</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>16</v>
@@ -1222,14 +1216,14 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11">
-        <v>0</v>
+      <c r="C4" s="5">
+        <v>220803</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="11">
-        <v>0</v>
+      <c r="E4" s="5">
+        <v>220803001</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>16</v>
@@ -1249,14 +1243,14 @@
       <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="11">
-        <v>0</v>
+      <c r="C5" s="5">
+        <v>220803</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="11">
-        <v>0</v>
+      <c r="E5" s="5">
+        <v>220803001</v>
       </c>
       <c r="F5" s="9" t="s">
         <v>16</v>
@@ -1276,14 +1270,14 @@
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="11">
-        <v>0</v>
+      <c r="C6" s="5">
+        <v>220803</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="11">
-        <v>0</v>
+      <c r="E6" s="5">
+        <v>220803001</v>
       </c>
       <c r="F6" s="9" t="s">
         <v>16</v>
@@ -1303,14 +1297,14 @@
       <c r="B7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="11">
-        <v>0</v>
+      <c r="C7" s="5">
+        <v>220803</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="11">
-        <v>0</v>
+      <c r="E7" s="5">
+        <v>220803001</v>
       </c>
       <c r="F7" s="9" t="s">
         <v>16</v>
@@ -1330,14 +1324,14 @@
       <c r="B8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="11">
-        <v>0</v>
+      <c r="C8" s="5">
+        <v>220803</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="11">
-        <v>0</v>
+      <c r="E8" s="5">
+        <v>220803001</v>
       </c>
       <c r="F8" s="9" t="s">
         <v>16</v>
@@ -1357,14 +1351,14 @@
       <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="11">
-        <v>0</v>
+      <c r="C9" s="5">
+        <v>220803</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="11">
-        <v>0</v>
+      <c r="E9" s="5">
+        <v>220803001</v>
       </c>
       <c r="F9" s="9" t="s">
         <v>16</v>
@@ -1384,14 +1378,14 @@
       <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="11">
-        <v>0</v>
+      <c r="C10" s="5">
+        <v>220803</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="11">
-        <v>0</v>
+      <c r="E10" s="5">
+        <v>220803001</v>
       </c>
       <c r="F10" s="9" t="s">
         <v>16</v>
@@ -1411,14 +1405,14 @@
       <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
+      <c r="C11" s="5">
+        <v>220803</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="11">
-        <v>0</v>
+      <c r="E11" s="5">
+        <v>220803001</v>
       </c>
       <c r="F11" s="9" t="s">
         <v>16</v>
@@ -1438,14 +1432,14 @@
       <c r="B12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="11">
-        <v>0</v>
+      <c r="C12" s="5">
+        <v>220803</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="11">
-        <v>0</v>
+      <c r="E12" s="5">
+        <v>220803001</v>
       </c>
       <c r="F12" s="9" t="s">
         <v>16</v>
@@ -1465,14 +1459,14 @@
       <c r="B13" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="11">
-        <v>0</v>
+      <c r="C13" s="5">
+        <v>220803</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="11">
-        <v>0</v>
+      <c r="E13" s="5">
+        <v>220803001</v>
       </c>
       <c r="F13" s="9" t="s">
         <v>16</v>
@@ -1492,14 +1486,14 @@
       <c r="B14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="11">
-        <v>0</v>
+      <c r="C14" s="5">
+        <v>220803</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="11">
-        <v>0</v>
+      <c r="E14" s="5">
+        <v>220803001</v>
       </c>
       <c r="F14" s="9" t="s">
         <v>16</v>
@@ -1519,14 +1513,14 @@
       <c r="B15" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="11">
-        <v>0</v>
+      <c r="C15" s="5">
+        <v>220803</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="11">
-        <v>0</v>
+      <c r="E15" s="5">
+        <v>220803001</v>
       </c>
       <c r="F15" s="9" t="s">
         <v>16</v>
@@ -1546,14 +1540,14 @@
       <c r="B16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C16" s="11">
-        <v>0</v>
+      <c r="C16" s="5">
+        <v>220803</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="11">
-        <v>0</v>
+      <c r="E16" s="5">
+        <v>220803001</v>
       </c>
       <c r="F16" s="9" t="s">
         <v>16</v>
@@ -1573,14 +1567,14 @@
       <c r="B17" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="11">
-        <v>0</v>
+      <c r="C17" s="5">
+        <v>220803</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="11">
-        <v>0</v>
+      <c r="E17" s="5">
+        <v>220803001</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>16</v>
@@ -1600,14 +1594,14 @@
       <c r="B18" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="11">
-        <v>0</v>
+      <c r="C18" s="5">
+        <v>220803</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="11">
-        <v>0</v>
+      <c r="E18" s="5">
+        <v>220803001</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>16</v>
@@ -1628,14 +1622,14 @@
       <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="11">
-        <v>0</v>
+      <c r="C19" s="5">
+        <v>220803</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="11">
-        <v>0</v>
+      <c r="E19" s="5">
+        <v>220803002</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>17</v>
@@ -1656,14 +1650,14 @@
       <c r="B20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C20" s="11">
-        <v>0</v>
+      <c r="C20" s="5">
+        <v>220803</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="11">
-        <v>0</v>
+      <c r="E20" s="5">
+        <v>220803002</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>17</v>
@@ -1684,14 +1678,14 @@
       <c r="B21" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="11">
-        <v>0</v>
+      <c r="C21" s="5">
+        <v>220803</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="11">
-        <v>0</v>
+      <c r="E21" s="5">
+        <v>220803002</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>17</v>
@@ -1712,14 +1706,14 @@
       <c r="B22" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="11">
-        <v>0</v>
+      <c r="C22" s="5">
+        <v>220803</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="11">
-        <v>0</v>
+      <c r="E22" s="5">
+        <v>220803002</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>17</v>
@@ -1740,14 +1734,14 @@
       <c r="B23" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="11">
-        <v>0</v>
+      <c r="C23" s="5">
+        <v>220803</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="11">
-        <v>0</v>
+      <c r="E23" s="5">
+        <v>220803002</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>17</v>
@@ -1768,14 +1762,14 @@
       <c r="B24" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="11">
-        <v>0</v>
+      <c r="C24" s="5">
+        <v>220803</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="11">
-        <v>0</v>
+      <c r="E24" s="5">
+        <v>220803002</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>17</v>
@@ -1796,14 +1790,14 @@
       <c r="B25" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="11">
-        <v>0</v>
+      <c r="C25" s="5">
+        <v>220803</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="11">
-        <v>0</v>
+      <c r="E25" s="5">
+        <v>220803002</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>17</v>
@@ -1824,14 +1818,14 @@
       <c r="B26" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="11">
-        <v>0</v>
+      <c r="C26" s="5">
+        <v>220803</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="11">
-        <v>0</v>
+      <c r="E26" s="5">
+        <v>220803002</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>17</v>
@@ -1852,14 +1846,14 @@
       <c r="B27" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="11">
-        <v>0</v>
+      <c r="C27" s="5">
+        <v>220803</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="11">
-        <v>0</v>
+      <c r="E27" s="5">
+        <v>220803002</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>17</v>
@@ -1880,14 +1874,14 @@
       <c r="B28" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="11">
-        <v>0</v>
+      <c r="C28" s="5">
+        <v>220803</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="11">
-        <v>0</v>
+      <c r="E28" s="5">
+        <v>220803002</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>17</v>
@@ -1908,14 +1902,14 @@
       <c r="B29" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="11">
-        <v>0</v>
+      <c r="C29" s="5">
+        <v>220803</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="11">
-        <v>0</v>
+      <c r="E29" s="5">
+        <v>220803002</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>17</v>
@@ -1936,14 +1930,14 @@
       <c r="B30" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C30" s="11">
-        <v>0</v>
+      <c r="C30" s="5">
+        <v>220803</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E30" s="11">
-        <v>0</v>
+      <c r="E30" s="5">
+        <v>220803002</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>17</v>
@@ -1964,14 +1958,14 @@
       <c r="B31" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="11">
-        <v>0</v>
+      <c r="C31" s="5">
+        <v>220803</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E31" s="11">
-        <v>0</v>
+      <c r="E31" s="5">
+        <v>220803002</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>17</v>
@@ -1992,14 +1986,14 @@
       <c r="B32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="11">
-        <v>0</v>
+      <c r="C32" s="5">
+        <v>220803</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E32" s="11">
-        <v>0</v>
+      <c r="E32" s="5">
+        <v>220803002</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>17</v>
@@ -2020,14 +2014,14 @@
       <c r="B33" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C33" s="11">
-        <v>0</v>
+      <c r="C33" s="5">
+        <v>220803</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="11">
-        <v>0</v>
+      <c r="E33" s="5">
+        <v>220803002</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>17</v>
@@ -2048,14 +2042,14 @@
       <c r="B34" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C34" s="11">
-        <v>0</v>
+      <c r="C34" s="5">
+        <v>220803</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E34" s="11">
-        <v>0</v>
+      <c r="E34" s="5">
+        <v>220803002</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>17</v>
@@ -2076,14 +2070,14 @@
       <c r="B35" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="11">
-        <v>0</v>
+      <c r="C35" s="5">
+        <v>220803</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="11">
-        <v>0</v>
+      <c r="E35" s="5">
+        <v>220803002</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>17</v>
@@ -2104,14 +2098,14 @@
       <c r="B36" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="11">
-        <v>0</v>
+      <c r="C36" s="5">
+        <v>220803</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="11">
-        <v>0</v>
+      <c r="E36" s="5">
+        <v>220803003</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>18</v>
@@ -2132,14 +2126,14 @@
       <c r="B37" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C37" s="11">
-        <v>0</v>
+      <c r="C37" s="5">
+        <v>220803</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="11">
-        <v>0</v>
+      <c r="E37" s="5">
+        <v>220803003</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>18</v>
@@ -2160,14 +2154,14 @@
       <c r="B38" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="11">
-        <v>0</v>
+      <c r="C38" s="5">
+        <v>220803</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="11">
-        <v>0</v>
+      <c r="E38" s="5">
+        <v>220803003</v>
       </c>
       <c r="F38" s="9" t="s">
         <v>18</v>
@@ -2188,14 +2182,14 @@
       <c r="B39" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C39" s="11">
-        <v>0</v>
+      <c r="C39" s="5">
+        <v>220803</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E39" s="11">
-        <v>0</v>
+      <c r="E39" s="5">
+        <v>220803003</v>
       </c>
       <c r="F39" s="9" t="s">
         <v>18</v>
@@ -2216,14 +2210,14 @@
       <c r="B40" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C40" s="11">
-        <v>0</v>
+      <c r="C40" s="5">
+        <v>220803</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E40" s="11">
-        <v>0</v>
+      <c r="E40" s="5">
+        <v>220803003</v>
       </c>
       <c r="F40" s="9" t="s">
         <v>18</v>
@@ -2244,14 +2238,14 @@
       <c r="B41" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="11">
-        <v>0</v>
+      <c r="C41" s="5">
+        <v>220803</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E41" s="11">
-        <v>0</v>
+      <c r="E41" s="5">
+        <v>220803003</v>
       </c>
       <c r="F41" s="9" t="s">
         <v>18</v>
@@ -2272,14 +2266,14 @@
       <c r="B42" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="11">
-        <v>0</v>
+      <c r="C42" s="5">
+        <v>220803</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E42" s="11">
-        <v>0</v>
+      <c r="E42" s="5">
+        <v>220803003</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>18</v>
@@ -2300,14 +2294,14 @@
       <c r="B43" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="11">
-        <v>0</v>
+      <c r="C43" s="5">
+        <v>220803</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E43" s="11">
-        <v>0</v>
+      <c r="E43" s="5">
+        <v>220803003</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>18</v>
@@ -2328,14 +2322,14 @@
       <c r="B44" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C44" s="11">
-        <v>0</v>
+      <c r="C44" s="5">
+        <v>220803</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E44" s="11">
-        <v>0</v>
+      <c r="E44" s="5">
+        <v>220803003</v>
       </c>
       <c r="F44" s="9" t="s">
         <v>18</v>
@@ -2356,14 +2350,14 @@
       <c r="B45" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="11">
-        <v>0</v>
+      <c r="C45" s="5">
+        <v>220803</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E45" s="11">
-        <v>0</v>
+      <c r="E45" s="5">
+        <v>220803003</v>
       </c>
       <c r="F45" s="9" t="s">
         <v>18</v>
@@ -2384,14 +2378,14 @@
       <c r="B46" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C46" s="11">
-        <v>0</v>
+      <c r="C46" s="5">
+        <v>220803</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="11">
-        <v>0</v>
+      <c r="E46" s="5">
+        <v>220803003</v>
       </c>
       <c r="F46" s="9" t="s">
         <v>18</v>
@@ -2412,14 +2406,14 @@
       <c r="B47" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C47" s="11">
-        <v>0</v>
+      <c r="C47" s="5">
+        <v>220803</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E47" s="11">
-        <v>0</v>
+      <c r="E47" s="5">
+        <v>220803003</v>
       </c>
       <c r="F47" s="9" t="s">
         <v>18</v>
@@ -2440,14 +2434,14 @@
       <c r="B48" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C48" s="11">
-        <v>0</v>
+      <c r="C48" s="5">
+        <v>220803</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E48" s="11">
-        <v>0</v>
+      <c r="E48" s="5">
+        <v>220803003</v>
       </c>
       <c r="F48" s="9" t="s">
         <v>18</v>
@@ -2468,14 +2462,14 @@
       <c r="B49" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="11">
-        <v>0</v>
+      <c r="C49" s="5">
+        <v>220803</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E49" s="11">
-        <v>0</v>
+      <c r="E49" s="5">
+        <v>220803003</v>
       </c>
       <c r="F49" s="9" t="s">
         <v>18</v>
@@ -2496,14 +2490,14 @@
       <c r="B50" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C50" s="11">
-        <v>0</v>
+      <c r="C50" s="5">
+        <v>220803</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E50" s="11">
-        <v>0</v>
+      <c r="E50" s="5">
+        <v>220803003</v>
       </c>
       <c r="F50" s="9" t="s">
         <v>18</v>
@@ -2524,14 +2518,14 @@
       <c r="B51" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="11">
-        <v>0</v>
+      <c r="C51" s="5">
+        <v>220803</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="11">
-        <v>0</v>
+      <c r="E51" s="5">
+        <v>220803003</v>
       </c>
       <c r="F51" s="9" t="s">
         <v>18</v>
@@ -2552,14 +2546,14 @@
       <c r="B52" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C52" s="11">
-        <v>0</v>
+      <c r="C52" s="5">
+        <v>220803</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E52" s="11">
-        <v>0</v>
+      <c r="E52" s="5">
+        <v>220803003</v>
       </c>
       <c r="F52" s="9" t="s">
         <v>18</v>
@@ -2580,14 +2574,14 @@
       <c r="B53" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C53" s="11">
-        <v>0</v>
+      <c r="C53" s="5">
+        <v>220803</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="11">
-        <v>0</v>
+      <c r="E53" s="5">
+        <v>220803004</v>
       </c>
       <c r="F53" s="9" t="s">
         <v>19</v>
@@ -2608,14 +2602,14 @@
       <c r="B54" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C54" s="11">
-        <v>0</v>
+      <c r="C54" s="5">
+        <v>220803</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E54" s="11">
-        <v>0</v>
+      <c r="E54" s="5">
+        <v>220803004</v>
       </c>
       <c r="F54" s="9" t="s">
         <v>19</v>
@@ -2636,14 +2630,14 @@
       <c r="B55" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="11">
-        <v>0</v>
+      <c r="C55" s="5">
+        <v>220803</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E55" s="11">
-        <v>0</v>
+      <c r="E55" s="5">
+        <v>220803004</v>
       </c>
       <c r="F55" s="9" t="s">
         <v>19</v>
@@ -2664,14 +2658,14 @@
       <c r="B56" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="11">
-        <v>0</v>
+      <c r="C56" s="5">
+        <v>220803</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E56" s="11">
-        <v>0</v>
+      <c r="E56" s="5">
+        <v>220803004</v>
       </c>
       <c r="F56" s="9" t="s">
         <v>19</v>
@@ -2692,14 +2686,14 @@
       <c r="B57" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="11">
-        <v>0</v>
+      <c r="C57" s="5">
+        <v>220803</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E57" s="11">
-        <v>0</v>
+      <c r="E57" s="5">
+        <v>220803004</v>
       </c>
       <c r="F57" s="9" t="s">
         <v>19</v>
@@ -2720,14 +2714,14 @@
       <c r="B58" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C58" s="11">
-        <v>0</v>
+      <c r="C58" s="5">
+        <v>220803</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E58" s="11">
-        <v>0</v>
+      <c r="E58" s="5">
+        <v>220803004</v>
       </c>
       <c r="F58" s="9" t="s">
         <v>19</v>
@@ -2748,14 +2742,14 @@
       <c r="B59" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C59" s="11">
-        <v>0</v>
+      <c r="C59" s="5">
+        <v>220803</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E59" s="11">
-        <v>0</v>
+      <c r="E59" s="5">
+        <v>220803004</v>
       </c>
       <c r="F59" s="9" t="s">
         <v>19</v>
@@ -2776,14 +2770,14 @@
       <c r="B60" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C60" s="11">
-        <v>0</v>
+      <c r="C60" s="5">
+        <v>220803</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E60" s="11">
-        <v>0</v>
+      <c r="E60" s="5">
+        <v>220803004</v>
       </c>
       <c r="F60" s="9" t="s">
         <v>19</v>
@@ -2804,14 +2798,14 @@
       <c r="B61" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="11">
-        <v>0</v>
+      <c r="C61" s="5">
+        <v>220803</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E61" s="11">
-        <v>0</v>
+      <c r="E61" s="5">
+        <v>220803004</v>
       </c>
       <c r="F61" s="9" t="s">
         <v>19</v>
@@ -2832,14 +2826,14 @@
       <c r="B62" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C62" s="11">
-        <v>0</v>
+      <c r="C62" s="5">
+        <v>220803</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E62" s="11">
-        <v>0</v>
+      <c r="E62" s="5">
+        <v>220803004</v>
       </c>
       <c r="F62" s="9" t="s">
         <v>19</v>
@@ -2860,14 +2854,14 @@
       <c r="B63" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C63" s="11">
-        <v>0</v>
+      <c r="C63" s="5">
+        <v>220803</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E63" s="11">
-        <v>0</v>
+      <c r="E63" s="5">
+        <v>220803004</v>
       </c>
       <c r="F63" s="9" t="s">
         <v>19</v>
@@ -2888,14 +2882,14 @@
       <c r="B64" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="11">
-        <v>0</v>
+      <c r="C64" s="5">
+        <v>220803</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E64" s="11">
-        <v>0</v>
+      <c r="E64" s="5">
+        <v>220803004</v>
       </c>
       <c r="F64" s="9" t="s">
         <v>19</v>
@@ -2916,14 +2910,14 @@
       <c r="B65" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C65" s="11">
-        <v>0</v>
+      <c r="C65" s="5">
+        <v>220803</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E65" s="11">
-        <v>0</v>
+      <c r="E65" s="5">
+        <v>220803004</v>
       </c>
       <c r="F65" s="9" t="s">
         <v>19</v>
@@ -2944,14 +2938,14 @@
       <c r="B66" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="11">
-        <v>0</v>
+      <c r="C66" s="5">
+        <v>220803</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E66" s="11">
-        <v>0</v>
+      <c r="E66" s="5">
+        <v>220803004</v>
       </c>
       <c r="F66" s="9" t="s">
         <v>19</v>
@@ -2972,14 +2966,14 @@
       <c r="B67" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="11">
-        <v>0</v>
+      <c r="C67" s="5">
+        <v>220803</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E67" s="11">
-        <v>0</v>
+      <c r="E67" s="5">
+        <v>220803004</v>
       </c>
       <c r="F67" s="9" t="s">
         <v>19</v>
@@ -3000,14 +2994,14 @@
       <c r="B68" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="11">
-        <v>0</v>
+      <c r="C68" s="5">
+        <v>220803</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E68" s="11">
-        <v>0</v>
+      <c r="E68" s="5">
+        <v>220803004</v>
       </c>
       <c r="F68" s="9" t="s">
         <v>19</v>
@@ -3028,14 +3022,14 @@
       <c r="B69" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C69" s="11">
-        <v>0</v>
+      <c r="C69" s="5">
+        <v>220803</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E69" s="11">
-        <v>0</v>
+      <c r="E69" s="5">
+        <v>220803004</v>
       </c>
       <c r="F69" s="9" t="s">
         <v>19</v>
@@ -3111,46 +3105,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="K1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="L1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="M1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="N1" s="13" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3161,40 +3155,40 @@
       <c r="B2" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="J2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="L2" s="13">
+      <c r="L2" s="12">
         <v>44312</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3205,40 +3199,40 @@
       <c r="B3" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="12">
         <v>44312</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3249,40 +3243,40 @@
       <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>54</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="12">
         <v>44312</v>
       </c>
-      <c r="M4" s="12" t="s">
+      <c r="M4" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="12" t="s">
+      <c r="N4" s="11" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3293,40 +3287,40 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>55</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>30</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="12">
         <v>44312</v>
       </c>
-      <c r="M5" s="12" t="s">
+      <c r="M5" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="N5" s="12" t="s">
+      <c r="N5" s="11" t="s">
         <v>65</v>
       </c>
     </row>
